--- a/datasets/Brasileirao/match_history/teams/ponte_preta.xlsx
+++ b/datasets/Brasileirao/match_history/teams/ponte_preta.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2017-05-14</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>42869</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -574,12 +586,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>2356</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.09479866045903014</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2017-05-21</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>42876</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -634,12 +650,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>2349</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0954645790782451</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2017-05-28</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>42883</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,12 +714,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>2342</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.09613517548093582</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2017-06-04</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>42890</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,12 +778,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>2335</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.09681048252646021</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2017-06-08</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>42894</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -814,12 +842,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>2331</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.09719849997410487</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2017-06-11</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>42897</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -874,12 +906,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>2328</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.09749053330499859</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2017-06-14</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>42900</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -934,12 +970,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>2325</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.09778344405135005</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2017-06-17</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>42903</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -994,12 +1034,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>2322</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.09807723484935806</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2017-06-22</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>42908</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1054,12 +1098,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>2317</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.09856884903487283</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2017-06-25</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>42911</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1114,12 +1162,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>2314</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.09886499958569081</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2017-07-02</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>42918</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1174,12 +1226,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>2307</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.09955948243696745</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2017-07-08</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>42924</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1234,12 +1290,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>2301</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.1001586349917971</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2017-07-12</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>42928</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1294,12 +1354,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>2297</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1005600718702723</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2017-07-16</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>42932</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1354,12 +1418,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>2293</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1009631177120426</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2017-07-19</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>42935</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1414,12 +1482,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>2290</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1012664618538834</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2017-07-23</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>42939</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1474,12 +1546,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>2286</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1016723389142504</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2017-08-02</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>42949</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1534,12 +1610,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>2276</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1026941629081768</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2017-08-06</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>42953</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1594,12 +1674,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>2272</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.1031057622096134</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2017-08-09</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>42956</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1654,12 +1738,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>2269</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.1034155439364963</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2017-08-13</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>42960</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1714,12 +1802,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>2265</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1038300345407969</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2017-08-20</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>42967</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1774,12 +1866,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>2258</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1045593945644476</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2017-08-27</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>42974</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1834,12 +1930,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>2251</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1052938780193526</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2017-09-09</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>42987</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1894,12 +1994,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>2238</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1066716344470358</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2017-09-16</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>42994</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1954,12 +2058,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>2231</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1074209554519573</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2017-09-24</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>43002</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2014,12 +2122,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>2223</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1082837697510982</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2017-10-02</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>43010</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2074,12 +2186,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>2215</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1091535142484641</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2017-10-07</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>43015</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2134,12 +2250,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>2210</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.1097006485155114</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2017-10-12</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>43020</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2194,12 +2314,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>2205</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1102505253044852</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2017-10-19</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>43027</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2254,12 +2378,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>2198</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1110249864331867</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2017-10-22</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>43030</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2314,12 +2442,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>2195</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1113585615049126</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2017-10-29</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>43037</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2374,12 +2506,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>2188</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1121408060973577</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2017-11-05</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>43044</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2434,12 +2570,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>2181</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.1129285456117392</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2017-11-08</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>43047</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2494,12 +2634,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>2178</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1132678399355895</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2017-11-12</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>43051</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2554,12 +2698,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>2174</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1137218186474508</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2017-11-15</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>43054</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2614,12 +2762,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>2171</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1140634963637092</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2017-11-20</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>43059</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2674,12 +2826,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>2166</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1146352420185286</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2017-11-26</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>43065</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2734,12 +2890,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>2160</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.1153251210380625</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2017-12-03</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>43072</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2794,12 +2954,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>2153</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1161352289551006</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2016-05-15</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>42505</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2854,12 +3018,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>2720</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.06587475442640295</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2016-05-21</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>42511</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2914,12 +3082,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>2714</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.06627119107359372</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2016-05-26</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>42516</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2974,12 +3146,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>2709</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.06660337680122747</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2016-05-29</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>42519</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3034,12 +3210,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>2706</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.06680348694676687</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2016-06-02</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>42523</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3094,12 +3274,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>2702</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.06707123603573319</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2016-06-05</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>42526</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3154,12 +3338,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>2699</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.06727275186644961</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2016-06-11</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>42532</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3214,12 +3402,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>2693</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.06767760171263805</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2016-06-15</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>42536</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3274,12 +3466,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>2689</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0679488542629192</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2016-06-19</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>42540</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3334,12 +3530,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>2685</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.06822119399631812</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2016-06-22</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>42543</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3394,12 +3594,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>2682</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.06842616488090583</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2016-06-26</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>42547</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3454,12 +3658,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>2678</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.06870041768035805</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2016-06-30</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>42551</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3514,12 +3722,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>2674</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.06897576968795878</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2016-07-03</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>42554</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3574,12 +3786,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>2671</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.06918300769861012</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2016-07-09</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>42560</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3634,12 +3850,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>2665</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.06959935353326901</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2016-07-16</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>42567</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3694,12 +3914,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>2658</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.07008825817789911</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2016-07-24</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>42575</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3754,12 +3978,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>2650</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.0706512130604296</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2016-07-31</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>42582</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3814,12 +4042,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>2643</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.07114750655254487</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2016-08-04</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>42586</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3874,12 +4106,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>2639</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.07143266651847373</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2016-08-07</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>42589</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3934,12 +4170,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>2636</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.07164728628671672</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2016-08-13</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>42595</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3994,12 +4234,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>2630</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.0720784622387661</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2016-08-21</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>42603</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4054,12 +4298,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>2622</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.07265740261048442</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2016-08-27</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>42609</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4114,12 +4362,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>2616</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.07309465747898901</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2016-09-07</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>42620</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4174,12 +4426,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>2605</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.07390313719755595</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2016-09-11</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>42624</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4234,12 +4490,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>2601</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.07419934176053282</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2016-09-14</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>42627</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4294,12 +4554,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>2598</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.07442227401699995</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2016-09-18</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>42631</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4354,12 +4618,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>2594</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.07472055928589216</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2016-09-25</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>42638</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4414,12 +4682,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>2587</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.07524543813360683</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>42644</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4474,12 +4746,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>2581</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.07569826789319881</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2016-10-08</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>42651</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4534,12 +4810,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>2574</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.07623001471101583</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2016-10-13</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>42656</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4594,12 +4874,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>2569</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.07661211924986724</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2016-10-16</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>42659</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4654,12 +4938,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>2566</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.07684230070716673</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2016-10-22</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>42665</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4714,12 +5002,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>2560</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.07730474044329974</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2016-10-27</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>42670</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4774,12 +5066,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>2555</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.07769223206730236</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2016-11-06</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>42680</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4834,12 +5130,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>2545</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.07847305198072073</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2016-11-17</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>42691</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4894,12 +5194,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>2534</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0793410206280695</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2016-11-20</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>42694</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4954,12 +5258,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>2531</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.07957940108184908</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2016-11-26</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>42700</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5014,12 +5322,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>2525</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.08005831278672054</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2016-12-11</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>42715</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5074,12 +5386,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>2510</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.08126823924089167</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2015-05-10</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>42134</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5130,12 +5446,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q78" t="n">
+        <v>3091</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.04545647519361237</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2015-05-17</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>42141</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5186,12 +5506,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q79" t="n">
+        <v>3084</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.04577578680675899</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2015-05-24</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>42148</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5242,12 +5566,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q80" t="n">
+        <v>3077</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.04609734144261812</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2015-05-30</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>42154</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5298,12 +5626,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q81" t="n">
+        <v>3071</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.04637475690541633</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2015-06-03</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>42158</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5354,12 +5686,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q82" t="n">
+        <v>3067</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.04656062742625237</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2015-06-06</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>42161</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5410,12 +5746,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q83" t="n">
+        <v>3064</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.04670051904103461</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2015-06-14</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>42169</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5466,12 +5806,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>3056</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.04707562160306615</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2015-06-24</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>42179</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5522,12 +5866,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q85" t="n">
+        <v>3046</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.04754873946576803</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2015-06-28</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>42183</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5578,12 +5926,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q86" t="n">
+        <v>3042</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.04773931532124098</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2015-07-02</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>42187</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5634,12 +5986,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q87" t="n">
+        <v>3038</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.0479306550067775</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2015-07-05</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>42190</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5690,12 +6046,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q88" t="n">
+        <v>3035</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.04807466287559518</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2015-07-08</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>42193</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5746,12 +6106,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q89" t="n">
+        <v>3032</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.04821910341670324</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2015-07-11</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>42196</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5802,12 +6166,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q90" t="n">
+        <v>3029</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.04836397793006753</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2015-07-19</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>42204</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5858,12 +6226,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q91" t="n">
+        <v>3021</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.04875244153612863</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2015-07-26</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>42211</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5914,12 +6286,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q92" t="n">
+        <v>3014</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.04909490585359783</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2015-08-02</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>42218</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5970,12 +6346,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q93" t="n">
+        <v>3007</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.04943977583127698</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2015-08-09</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>42225</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6026,12 +6406,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q94" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.04978706836786394</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2015-08-13</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>42229</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6082,12 +6466,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q95" t="n">
+        <v>2996</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.04998661546947589</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2015-08-16</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>42232</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6138,12 +6526,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q96" t="n">
+        <v>2993</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.05013680048076252</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2015-08-23</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>42239</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6194,12 +6586,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q97" t="n">
+        <v>2986</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.05048898930691617</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2015-08-29</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>42245</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6250,12 +6646,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q98" t="n">
+        <v>2980</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.0507928338648985</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2015-09-02</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>42249</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6306,12 +6706,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q99" t="n">
+        <v>2976</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.05099641208536147</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2015-09-06</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>42253</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6362,12 +6766,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q100" t="n">
+        <v>2972</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.05120080624950572</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2015-09-09</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>42256</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6418,12 +6826,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q101" t="n">
+        <v>2969</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.05135463930245891</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2015-09-13</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>42260</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6474,12 +6886,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q102" t="n">
+        <v>2965</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.0515604692451142</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2015-09-16</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>42263</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6530,12 +6946,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q103" t="n">
+        <v>2962</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.05171538290715736</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2015-09-19</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>42266</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6586,12 +7006,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q104" t="n">
+        <v>2959</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.05187076200799579</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2015-09-27</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>42274</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -6642,12 +7066,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q105" t="n">
+        <v>2951</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.05228739240361583</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2015-10-04</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>42281</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -6698,12 +7126,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q106" t="n">
+        <v>2944</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.05265468818588921</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2015-10-14</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>42291</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -6754,12 +7186,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q107" t="n">
+        <v>2934</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.05318387659992216</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2015-10-18</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>42295</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -6810,12 +7246,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q108" t="n">
+        <v>2930</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.05339703814519708</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2015-10-25</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>42302</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -6866,12 +7306,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q109" t="n">
+        <v>2923</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.05377212869752812</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2015-10-31</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>42308</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -6922,12 +7366,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q110" t="n">
+        <v>2917</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.05409573130673365</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2015-11-07</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>42315</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -6978,12 +7426,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q111" t="n">
+        <v>2910</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.05447572986918986</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2015-11-18</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>42326</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7034,12 +7486,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q112" t="n">
+        <v>2899</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.05507827079724649</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2015-11-22</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>42330</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7090,12 +7546,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q113" t="n">
+        <v>2895</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.05529902509469138</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2015-11-28</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>42336</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7146,12 +7606,16 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q114" t="n">
+        <v>2889</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.05563181662146587</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2015-12-06</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>42344</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7202,6 +7666,12 @@
           <t>ponte_preta</t>
         </is>
       </c>
+      <c r="Q115" t="n">
+        <v>2881</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.05607865612932754</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
